--- a/Proj_2_To_Do_List.xlsx
+++ b/Proj_2_To_Do_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgranger\Documents\SMU\6372_Applied Statistics\MSDS6372\Applied_Stats_Project_2\Proj2_Doc\6372_proj2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C61177-61C6-4FC5-8D82-4E61E821BE86}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF98FC61-58AB-41A9-9635-F6B29A031136}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12585" windowHeight="7515" xr2:uid="{FE03EE8D-06BD-44DB-91B9-82F72860F702}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Addressing Objective 1:</t>
   </si>
@@ -240,11 +240,20 @@
       <t>Required</t>
     </r>
   </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -305,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -333,13 +342,47 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{BD75E950-6986-4B25-AB21-6DC0C6076357}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -648,75 +691,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75289286-1B3D-4D2B-9847-11C45ABB3B32}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="81.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="11" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>2</v>
       </c>
@@ -807,7 +859,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{68D46A92-33BD-4581-978A-C82B57EBB5A8}"/>
+  <autoFilter ref="A1:C1" xr:uid="{2460A35D-3D2B-4E58-B305-39C3053667F0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Proj_2_To_Do_List.xlsx
+++ b/Proj_2_To_Do_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgranger\Documents\SMU\6372_Applied Statistics\MSDS6372\Applied_Stats_Project_2\Proj2_Doc\6372_proj2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF98FC61-58AB-41A9-9635-F6B29A031136}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B81E7D-BFC1-43B9-9368-9209519ECE1F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12585" windowHeight="7515" xr2:uid="{FE03EE8D-06BD-44DB-91B9-82F72860F702}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Addressing Objective 1:</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>Complete</t>
+  </si>
+  <si>
+    <t>Bruce-LASSO</t>
   </si>
 </sst>
 </file>
@@ -695,7 +698,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,6 +765,9 @@
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="B13" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">

--- a/Proj_2_To_Do_List.xlsx
+++ b/Proj_2_To_Do_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgranger\Documents\SMU\6372_Applied Statistics\MSDS6372\Applied_Stats_Project_2\Proj2_Doc\6372_proj2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B81E7D-BFC1-43B9-9368-9209519ECE1F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6E63BC-00CD-4553-B810-B9BE5859FC22}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12585" windowHeight="7515" xr2:uid="{FE03EE8D-06BD-44DB-91B9-82F72860F702}"/>
   </bookViews>
@@ -250,7 +250,7 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>Bruce-LASSO</t>
+    <t>Bruce: Stepwise: Forward, Backward</t>
   </si>
 </sst>
 </file>
@@ -317,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -351,6 +351,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,7 +701,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,11 +764,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Proj_2_To_Do_List.xlsx
+++ b/Proj_2_To_Do_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgranger\Documents\SMU\6372_Applied Statistics\MSDS6372\Applied_Stats_Project_2\Proj2_Doc\6372_proj2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6E63BC-00CD-4553-B810-B9BE5859FC22}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19B9C85-3DEF-4796-BA77-61B130B8D677}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12585" windowHeight="7515" xr2:uid="{FE03EE8D-06BD-44DB-91B9-82F72860F702}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Addressing Objective 1:</t>
   </si>
@@ -701,7 +701,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,6 +771,9 @@
       <c r="B13" s="12" t="s">
         <v>32</v>
       </c>
+      <c r="C13" s="11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
